--- a/CrazySerGo/evidence.xlsx
+++ b/CrazySerGo/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
   <si>
     <t>TxHash</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>NFTID</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
   </si>
   <si>
     <t>TeamName</t>
@@ -176,6 +170,135 @@
   </si>
   <si>
     <t>9F40545C1606DB082C482770FD6CA4E2BA01A8AF0EECF9A56FEB08951D4760D8</t>
+  </si>
+  <si>
+    <t>ibc/95BA9D3D21FBE2B0060238CF5E0A8A991ED93295EF9EE71855CBC9832F5D0BC0</t>
+  </si>
+  <si>
+    <t>serGo07</t>
+  </si>
+  <si>
+    <t>ibc/DD9CA522DA91BEB79E9C59535CD47ED46D6897332DA049B52E864B93176CB208</t>
+  </si>
+  <si>
+    <t>serGo08</t>
+  </si>
+  <si>
+    <t>ibc/026D50A76DECBC83231BB25DE9407D46D2B21D5B4F407D18230EE01CC8D7494C</t>
+  </si>
+  <si>
+    <t>serGo09</t>
+  </si>
+  <si>
+    <t>ibc/5FBB398C343EBA42A52517960C3CB5436BEED3B34F2A2E63013CDE2C9B8AAF9D</t>
+  </si>
+  <si>
+    <t>serGo010</t>
+  </si>
+  <si>
+    <t>ibc/E65AC49FB7E5F602C580B61F114AC54A84D2B353A7C237091D17FFED1F95052A</t>
+  </si>
+  <si>
+    <t>serGo011</t>
+  </si>
+  <si>
+    <t>ibc/B9A08AA3B6ACA083A6D97637114A3A3A8095A9F164ECEDBB4B8C2F369C7E2E5D</t>
+  </si>
+  <si>
+    <t>serGo012</t>
+  </si>
+  <si>
+    <t>FBB3B2C2F7A7A6A69C4A7BBDFF088E3CD9B381512250000940BE4E88E975FF81</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>552B71A1119137B77479D31E9A07CC3F74A94071375F6098D29FC23091D5834A</t>
+  </si>
+  <si>
+    <t>C518F568044B8E3C7026A645BB25377CD516FBE7FB4F0B52E54A4CDA5B2E5218</t>
+  </si>
+  <si>
+    <t>FA99D3D935D71F18FA3D8CE2B36A16F9E4B1409CC2E3A2D15081391DE339D65B</t>
+  </si>
+  <si>
+    <t>F3429869EF6E8B6E87DB4ACF938EE5B877A9CB459AA91F68B6525CBFE2F6C924</t>
+  </si>
+  <si>
+    <t>8CD0090FC457B93D183A248EF8512DE909979A734823C10DE6FFD61A4D9D23C9</t>
+  </si>
+  <si>
+    <t>7606B11CF2EA7B11FFFC06F895F6C79ABB03F94620F8FD14AD63AADF3485AF3B</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>70EF62D47EBE914C143F5287A1C9E8C417A63A60A29DA1E323967F7A3177D34C</t>
+  </si>
+  <si>
+    <t>1977BA730166E97BE35D863C4BB9992857CCBCE802B2E37C365CFA1A6521DAA4</t>
+  </si>
+  <si>
+    <t>B5FA662A1EAD42A627EB5F5D3E9E9916ECCC2E818E0B5485CDFE80AC6606104A</t>
+  </si>
+  <si>
+    <t>ED1CD16A3D3BB20C1C6B77D791D485BD580044C9B68B870B7FCACD00C1C5BED6</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>4CD719C76B2B8AFD208616C29C511E2F8049B887A41E4A1D393CFE3252A139EA</t>
+  </si>
+  <si>
+    <t>107F2A0F207A5C7BFAF2F8A56D2740736A9D529156879843EFE4CD618482BA0E</t>
+  </si>
+  <si>
+    <t>1E72F2021264078A946EA3AE86969C45EA7C89A6CCD280D9AEE367D946CED2A4</t>
+  </si>
+  <si>
+    <t>D6790D4C186E85C09F16E9BBA1D27CF45FA64F053E4FFB27F68A232BD4E2B76F</t>
+  </si>
+  <si>
+    <t>DB003317E6B240EC9E449134F63DBEDF50559B98561F7F8AE1430380C4501856</t>
+  </si>
+  <si>
+    <t>ABB327DAFE3CF67F61FBAA00CC7461E7EB09D4416B839C944687AACE4BC76256</t>
+  </si>
+  <si>
+    <t>059228A68CC815D2F78187F819815017BAC69D919367BB5D5A45517696DC6E1D</t>
+  </si>
+  <si>
+    <t>C1E09A65FB88EE05AEE4297F92B3C1396D36763719536E68259D1F8D427742B3</t>
+  </si>
+  <si>
+    <t>DD18C93ED50F3245A80D028794210D5DBED3E7E1452FA4A626457778A118EABE</t>
+  </si>
+  <si>
+    <t>DC3B798CF21EA286D350BC2CC8F4F36CC0BCFCB786A321C90EC5B9CBE6D66E49</t>
+  </si>
+  <si>
+    <t>97A1E64DEC3CD86BC83EEE07C261B9416A1683ADE516B841DD19554D35F8E244</t>
+  </si>
+  <si>
+    <t>68C20D313D8107564ACC8F9A90A11552FEB50D0C3063782357E636CB75E3E47D</t>
+  </si>
+  <si>
+    <t>A1FB1703560E0C2DFE838B9F57977FFCC71E1A603FC4BFB8DA378B5FAF6063A8</t>
+  </si>
+  <si>
+    <t>789EBF45473519A04036A8296FC67AAEB7C22F20F1B7860C409962B1583DE98E</t>
+  </si>
+  <si>
+    <t>331767050DF0F26D34D34D4D55ECD0C3385A4BC9AD1ED32E0618F25068D916EF</t>
+  </si>
+  <si>
+    <t>34A86FB84A24A4BA2C71AED753C7C63652D207988E4E2DC30D0D27329B3292AC</t>
+  </si>
+  <si>
+    <t>D609B8F6ED691BC84942D6CDD04C382C5DE1A10790EB5F02B715A0E369FCC200</t>
   </si>
 </sst>
 </file>
@@ -572,8 +695,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,55 +713,55 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -652,7 +775,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -670,10 +795,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +813,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,10 +833,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +851,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -742,10 +871,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +889,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -778,10 +909,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +921,130 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -837,7 +1092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -885,14 +1140,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -910,37 +1167,55 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -958,119 +1233,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,10 +1294,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1120,9 +1311,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1140,23 +1333,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,9 +1389,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1188,23 +1411,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,35 +1628,35 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1447,16 +1698,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1498,16 +1749,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1549,16 +1800,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1824,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1601,16 +1852,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1876,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1643,10 +1896,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1914,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1679,10 +1934,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/CrazySerGo/evidence.xlsx
+++ b/CrazySerGo/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
   <si>
     <t>TxHash</t>
   </si>
@@ -55,15 +55,6 @@
   </si>
   <si>
     <t>ChainID</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
   </si>
   <si>
     <t>ClassID</t>
@@ -299,6 +290,30 @@
   </si>
   <si>
     <t>D609B8F6ED691BC84942D6CDD04C382C5DE1A10790EB5F02B715A0E369FCC200</t>
+  </si>
+  <si>
+    <t>9FE7B7F7D94011572048E56F90865F4C8F87DDB61CBF20AE2A69BB5D846F38A9</t>
+  </si>
+  <si>
+    <t>A71C819443271EC8C02680D96C4EDE4A0B3375A04792275102A1C491DC3142AC</t>
+  </si>
+  <si>
+    <t>49413CF3E46A8A9EAD5ECCE8BA27C32584C79DC67E3438A049EB279C887CD383</t>
+  </si>
+  <si>
+    <t>F876E7F4F7B1102F3B1C6364D2E45166F8043545C5033B2CEED6F365DDC8F42D</t>
+  </si>
+  <si>
+    <t>6DD6907EEABA0E2CC5AB5A159DEA75B5E33A2611418525590A2154054980491D</t>
+  </si>
+  <si>
+    <t>E2507178F78FB37FA6013A72C03739920E1858E78B217A97ACC2CB6D1CA975C1</t>
+  </si>
+  <si>
+    <t>EB1D4864BBFE3365FDFFC53FFE7BBA66DB858259E8B28C439D75835E33B2DF99</t>
+  </si>
+  <si>
+    <t>C671AFEE168719A9DEFD8FFB412202411B8F9F99ED9E8C7521C8D31C20B7E250</t>
   </si>
 </sst>
 </file>
@@ -695,7 +710,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -713,54 +728,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -787,18 +802,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -825,18 +840,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -863,18 +878,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -901,18 +916,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -947,15 +962,77 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
@@ -963,15 +1040,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
@@ -982,12 +1059,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1009,192 +1211,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,34 +1277,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1289,15 +1333,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1333,15 +1377,93 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
@@ -1349,112 +1471,34 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1620,43 +1664,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1687,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1698,16 +1742,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1738,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1749,16 +1793,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1789,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1800,16 +1844,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1841,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1852,16 +1896,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1888,18 +1932,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1926,18 +1970,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
